--- a/src/main/java/com/mymatrix/qa/testdata/US QA Regression.xlsx
+++ b/src/main/java/com/mymatrix/qa/testdata/US QA Regression.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BB3703-5541-4B98-A68B-54F946EEE983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BA188A-8496-4BBD-90D5-09859AD8EA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="267">
   <si>
     <t>Active</t>
   </si>
@@ -694,15 +694,6 @@
     <t>UDA0000813N</t>
   </si>
   <si>
-    <t>Success - 2021/03/11 12:02:33</t>
-  </si>
-  <si>
-    <t>Success - 2021/03/11 12:02:50</t>
-  </si>
-  <si>
-    <t>Success - 2021/03/11 12:03:05</t>
-  </si>
-  <si>
     <t>Success - 2021/03/11 12:03:20</t>
   </si>
   <si>
@@ -748,118 +739,100 @@
     <t>US Commercial</t>
   </si>
   <si>
-    <t>Success - 2025/05/20 21:36:31</t>
-  </si>
-  <si>
-    <t>Success - 2025/05/20 21:36:35</t>
-  </si>
-  <si>
-    <t>Success - 2025/05/20 21:36:37</t>
-  </si>
-  <si>
-    <t>Success - 2025/05/20 21:36:39</t>
-  </si>
-  <si>
-    <t>Success - 2025/05/20 21:36:41</t>
-  </si>
-  <si>
-    <t>Success - 2025/05/20 21:37:07</t>
-  </si>
-  <si>
     <t>Canada</t>
   </si>
   <si>
-    <t>Success - 2025/05/20 21:44:33</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>Success - 2025/05/20 21:44:36</t>
-  </si>
-  <si>
-    <t>Success - 2025/05/20 21:44:39</t>
-  </si>
-  <si>
-    <t>Success - 2025/05/20 21:44:41</t>
-  </si>
-  <si>
-    <t>Success - 2025/05/20 21:44:43</t>
-  </si>
-  <si>
-    <t>Failure - 2025/05/20 21:45:09</t>
-  </si>
-  <si>
-    <t>Success - 2025/05/20 21:45:46</t>
-  </si>
-  <si>
-    <t>Success - 2025/05/20 21:48:48</t>
-  </si>
-  <si>
-    <t>Success - 2025/05/20 21:48:52</t>
-  </si>
-  <si>
-    <t>Success - 2025/05/20 21:48:54</t>
-  </si>
-  <si>
-    <t>Success - 2025/05/20 21:48:56</t>
-  </si>
-  <si>
-    <t>Success - 2025/05/20 21:48:58</t>
-  </si>
-  <si>
-    <t>Failure - 2025/05/20 21:49:20</t>
-  </si>
-  <si>
-    <t>Success - 2025/05/20 21:49:47</t>
-  </si>
-  <si>
-    <t>Failure - 2025/09/14 19:39:43</t>
-  </si>
-  <si>
     <t>Failure - 2025/09/14 19:39:54</t>
   </si>
   <si>
     <t>Failure - 2025/09/14 19:40:24</t>
   </si>
   <si>
-    <t>Success - 2025/09/14 20:12:05</t>
-  </si>
-  <si>
-    <t>Success - 2025/09/14 20:12:09</t>
-  </si>
-  <si>
-    <t>Success - 2025/09/14 20:12:12</t>
-  </si>
-  <si>
-    <t>Success - 2025/09/14 20:12:15</t>
-  </si>
-  <si>
-    <t>Success - 2025/09/14 20:12:17</t>
-  </si>
-  <si>
-    <t>Failure - 2025/09/14 20:12:19</t>
-  </si>
-  <si>
-    <t>Success - 2025/09/14 20:12:44</t>
-  </si>
-  <si>
-    <t>Success - 2025/09/14 20:12:48</t>
-  </si>
-  <si>
-    <t>Success - 2025/09/14 20:12:50</t>
-  </si>
-  <si>
-    <t>Success - 2025/09/14 20:12:52</t>
-  </si>
-  <si>
-    <t>Success - 2025/09/14 20:12:54</t>
-  </si>
-  <si>
-    <t>Failure - 2025/09/14 20:13:06</t>
-  </si>
-  <si>
-    <t>Failure - 2025/09/14 20:13:15</t>
+    <t>Success - 2025/09/14 21:18:23</t>
+  </si>
+  <si>
+    <t>Success - 2025/09/14 21:18:26</t>
+  </si>
+  <si>
+    <t>Success - 2025/09/14 21:18:29</t>
+  </si>
+  <si>
+    <t>Success - 2025/09/14 21:18:31</t>
+  </si>
+  <si>
+    <t>Success - 2025/09/14 21:18:33</t>
+  </si>
+  <si>
+    <t>Failure - 2025/09/14 21:18:42</t>
+  </si>
+  <si>
+    <t>Failure - 2025/09/14 21:18:54</t>
+  </si>
+  <si>
+    <t>Success - 2025/09/14 21:28:17</t>
+  </si>
+  <si>
+    <t>Success - 2025/09/14 21:28:19</t>
+  </si>
+  <si>
+    <t>Success - 2025/09/14 21:28:21</t>
+  </si>
+  <si>
+    <t>Success - 2025/09/14 21:28:22</t>
+  </si>
+  <si>
+    <t>Success - 2025/09/14 21:28:24</t>
+  </si>
+  <si>
+    <t>Failure - 2025/09/14 21:28:32</t>
+  </si>
+  <si>
+    <t>Failure - 2025/09/14 21:28:41</t>
+  </si>
+  <si>
+    <t>Success - 2025/09/14 21:30:31</t>
+  </si>
+  <si>
+    <t>Success - 2025/09/14 21:30:33</t>
+  </si>
+  <si>
+    <t>Success - 2025/09/14 21:30:35</t>
+  </si>
+  <si>
+    <t>Success - 2025/09/14 21:30:36</t>
+  </si>
+  <si>
+    <t>Success - 2025/09/14 21:30:38</t>
+  </si>
+  <si>
+    <t>Failure - 2025/09/14 21:30:47</t>
+  </si>
+  <si>
+    <t>Failure - 2025/09/14 21:30:55</t>
+  </si>
+  <si>
+    <t>Success - 2025/09/14 21:31:45</t>
+  </si>
+  <si>
+    <t>Success - 2025/09/14 21:31:47</t>
+  </si>
+  <si>
+    <t>Success - 2025/09/14 21:31:48</t>
+  </si>
+  <si>
+    <t>Success - 2025/09/14 21:31:50</t>
+  </si>
+  <si>
+    <t>Success - 2025/09/14 21:31:51</t>
+  </si>
+  <si>
+    <t>Success - 2025/09/14 21:31:54</t>
+  </si>
+  <si>
+    <t>Success - 2025/09/14 21:31:56</t>
   </si>
 </sst>
 </file>
@@ -1216,9 +1189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1281,11 +1252,14 @@
       <c r="F2" t="s">
         <v>16</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="H2" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="I2" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1307,11 +1281,14 @@
       <c r="F3" t="s">
         <v>15</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="H3" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="I3" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1327,12 +1304,20 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="H4" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="I4" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1348,11 +1333,20 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="H5" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="I5" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1374,11 +1368,14 @@
       <c r="F6" t="s">
         <v>15</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="H6" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="I6" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1392,22 +1389,22 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G7" t="s">
         <v>234</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G7" t="s">
-        <v>237</v>
-      </c>
       <c r="H7" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="I7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1421,22 +1418,22 @@
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" t="s">
+        <v>233</v>
+      </c>
+      <c r="G8" t="s">
         <v>235</v>
       </c>
-      <c r="F8" t="s">
-        <v>236</v>
-      </c>
-      <c r="G8" t="s">
-        <v>244</v>
-      </c>
       <c r="H8" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="I8" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2228,7 +2225,7 @@
         <v>130</v>
       </c>
       <c r="L2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2266,7 +2263,7 @@
         <v>130</v>
       </c>
       <c r="L3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -2357,7 +2354,7 @@
         <v>128</v>
       </c>
       <c r="L2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2383,7 +2380,7 @@
         <v>128</v>
       </c>
       <c r="L3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2409,7 +2406,7 @@
         <v>128</v>
       </c>
       <c r="L4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2447,7 +2444,7 @@
         <v>127</v>
       </c>
       <c r="L5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2542,7 +2539,7 @@
         <v>184</v>
       </c>
       <c r="M2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2568,7 +2565,7 @@
         <v>184</v>
       </c>
       <c r="M3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2594,7 +2591,7 @@
         <v>184</v>
       </c>
       <c r="M4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2632,7 +2629,7 @@
         <v>127</v>
       </c>
       <c r="M5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3101,7 +3098,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="N2" t="s">
         <v>219</v>
@@ -3309,7 +3306,7 @@
         <v>67</v>
       </c>
       <c r="M2" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -3350,7 +3347,7 @@
         <v>69</v>
       </c>
       <c r="M3" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -3391,7 +3388,7 @@
         <v>78</v>
       </c>
       <c r="M4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/mymatrix/qa/testdata/US QA Regression.xlsx
+++ b/src/main/java/com/mymatrix/qa/testdata/US QA Regression.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BA188A-8496-4BBD-90D5-09859AD8EA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0C98F2-F1EB-4A86-9FAB-EF993976E302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="253">
   <si>
     <t>Active</t>
   </si>
@@ -772,74 +772,31 @@
     <t>Failure - 2025/09/14 21:18:54</t>
   </si>
   <si>
-    <t>Success - 2025/09/14 21:28:17</t>
-  </si>
-  <si>
-    <t>Success - 2025/09/14 21:28:19</t>
-  </si>
-  <si>
-    <t>Success - 2025/09/14 21:28:21</t>
-  </si>
-  <si>
-    <t>Success - 2025/09/14 21:28:22</t>
-  </si>
-  <si>
-    <t>Success - 2025/09/14 21:28:24</t>
-  </si>
-  <si>
-    <t>Failure - 2025/09/14 21:28:32</t>
-  </si>
-  <si>
-    <t>Failure - 2025/09/14 21:28:41</t>
-  </si>
-  <si>
-    <t>Success - 2025/09/14 21:30:31</t>
-  </si>
-  <si>
-    <t>Success - 2025/09/14 21:30:33</t>
-  </si>
-  <si>
-    <t>Success - 2025/09/14 21:30:35</t>
-  </si>
-  <si>
-    <t>Success - 2025/09/14 21:30:36</t>
-  </si>
-  <si>
-    <t>Success - 2025/09/14 21:30:38</t>
-  </si>
-  <si>
-    <t>Failure - 2025/09/14 21:30:47</t>
-  </si>
-  <si>
-    <t>Failure - 2025/09/14 21:30:55</t>
-  </si>
-  <si>
-    <t>Success - 2025/09/14 21:31:45</t>
-  </si>
-  <si>
-    <t>Success - 2025/09/14 21:31:47</t>
-  </si>
-  <si>
-    <t>Success - 2025/09/14 21:31:48</t>
-  </si>
-  <si>
-    <t>Success - 2025/09/14 21:31:50</t>
-  </si>
-  <si>
-    <t>Success - 2025/09/14 21:31:51</t>
-  </si>
-  <si>
-    <t>Success - 2025/09/14 21:31:54</t>
-  </si>
-  <si>
-    <t>Success - 2025/09/14 21:31:56</t>
+    <t>Success - 2025/09/14 21:42:16</t>
+  </si>
+  <si>
+    <t>Success - 2025/09/14 21:42:19</t>
+  </si>
+  <si>
+    <t>Success - 2025/09/14 21:42:20</t>
+  </si>
+  <si>
+    <t>Success - 2025/09/14 21:42:21</t>
+  </si>
+  <si>
+    <t>Success - 2025/09/14 21:42:23</t>
+  </si>
+  <si>
+    <t>Success - 2025/09/14 21:42:26</t>
+  </si>
+  <si>
+    <t>Success - 2025/09/14 21:42:27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1193,15 +1150,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="48.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1259,7 +1216,7 @@
         <v>239</v>
       </c>
       <c r="I2" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1288,7 +1245,7 @@
         <v>240</v>
       </c>
       <c r="I3" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1317,7 +1274,7 @@
         <v>241</v>
       </c>
       <c r="I4" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1346,7 +1303,7 @@
         <v>242</v>
       </c>
       <c r="I5" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1375,12 +1332,12 @@
         <v>243</v>
       </c>
       <c r="I6" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -1404,7 +1361,7 @@
         <v>244</v>
       </c>
       <c r="I7" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1433,7 +1390,7 @@
         <v>245</v>
       </c>
       <c r="I8" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -1453,17 +1410,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1584,16 +1541,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1705,17 +1662,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1836,19 +1793,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1987,19 +1944,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -2138,18 +2095,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2279,18 +2236,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2460,19 +2417,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -2645,16 +2602,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2785,11 +2742,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2856,16 +2813,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3003,20 +2960,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3117,14 +3074,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3212,19 +3169,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="5.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -3404,17 +3361,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -3570,17 +3527,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -3736,17 +3693,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
